--- a/Tests/data2.xlsx
+++ b/Tests/data2.xlsx
@@ -393,7 +393,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,14 +406,14 @@
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <f>H1/D1*C1/B1</f>
-        <v>-2117.737232469462</v>
+        <v>-706.87843613607799</v>
       </c>
       <c r="B1">
         <v>4.58</v>
       </c>
       <c r="C1">
         <f>-H1/I1</f>
-        <v>3.5665478306576994</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="D1" s="1">
         <f>E1*F1*G1</f>
@@ -429,34 +429,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H1" s="5">
-        <v>-700</v>
+        <v>-100</v>
       </c>
       <c r="I1" s="3">
         <f>J1/H1</f>
-        <v>196.26822160714286</v>
+        <v>12</v>
       </c>
       <c r="J1">
         <f>K1*L1</f>
-        <v>-137387.755125</v>
+        <v>-1200</v>
       </c>
       <c r="K1" s="5">
-        <v>-750</v>
+        <v>-6</v>
       </c>
       <c r="L1">
-        <v>183.1836735</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <f t="shared" ref="A2:A18" si="0">H2/D2*C2/B2</f>
-        <v>-2437.2724567856981</v>
+        <v>-805.9505196672236</v>
       </c>
       <c r="B2">
         <v>4.12</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:C18" si="1">-H2/I2</f>
-        <v>3.6924259902167877</v>
+        <v>8.5470085470085468</v>
       </c>
       <c r="D2" s="1">
         <f t="shared" ref="D2:D18" si="2">E2*F2*G2</f>
@@ -472,34 +472,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H2" s="5">
-        <v>-700</v>
+        <v>-100</v>
       </c>
       <c r="I2" s="3">
         <f t="shared" ref="I2:I18" si="3">J2/H2</f>
-        <v>189.5772594642857</v>
+        <v>11.7</v>
       </c>
       <c r="J2">
         <f t="shared" ref="J2:J18" si="4">K2*L2</f>
-        <v>-132704.08162499999</v>
+        <v>-1170</v>
       </c>
       <c r="K2" s="5">
-        <v>-750</v>
+        <v>-6</v>
       </c>
       <c r="L2">
-        <v>176.93877549999999</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <f t="shared" si="0"/>
-        <v>-2546.338945546679</v>
+        <v>-883.0557756572075</v>
       </c>
       <c r="B3">
         <v>4.1900000000000004</v>
       </c>
       <c r="C3">
         <f t="shared" si="1"/>
-        <v>3.9232026154368107</v>
+        <v>9.5238095238095237</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" si="2"/>
@@ -515,34 +515,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H3" s="5">
-        <v>-700</v>
+        <v>-100</v>
       </c>
       <c r="I3" s="3">
         <f t="shared" si="3"/>
-        <v>178.42565592857144</v>
+        <v>10.5</v>
       </c>
       <c r="J3">
         <f t="shared" si="4"/>
-        <v>-124897.95915000001</v>
+        <v>-1050</v>
       </c>
       <c r="K3" s="5">
-        <v>-750</v>
+        <v>-6</v>
       </c>
       <c r="L3">
-        <v>166.53061220000001</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <f t="shared" si="0"/>
-        <v>-2271.7096685159099</v>
+        <v>-816.84409849454482</v>
       </c>
       <c r="B4">
         <v>4.76</v>
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
-        <v>3.976218866996768</v>
+        <v>10.008169937338803</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="2"/>
@@ -558,18 +558,18 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H4" s="5">
-        <v>-700</v>
+        <v>-100</v>
       </c>
       <c r="I4" s="3">
         <f t="shared" si="3"/>
-        <v>176.04664718285716</v>
+        <v>9.9918367320000012</v>
       </c>
       <c r="J4">
         <f t="shared" si="4"/>
-        <v>-123232.653028</v>
+        <v>-999.18367320000004</v>
       </c>
       <c r="K4" s="5">
-        <v>-740</v>
+        <v>-6</v>
       </c>
       <c r="L4">
         <v>166.53061220000001</v>
@@ -578,14 +578,14 @@
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <f t="shared" si="0"/>
-        <v>-2573.1140704805589</v>
+        <v>-912.71781897512517</v>
       </c>
       <c r="B5">
         <v>4.26</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>4.0306876185994636</v>
+        <v>10.008169937338803</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="2"/>
@@ -601,18 +601,18 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H5" s="5">
-        <v>-700</v>
+        <v>-100</v>
       </c>
       <c r="I5" s="3">
         <f t="shared" si="3"/>
-        <v>173.66763843714287</v>
+        <v>9.9918367320000012</v>
       </c>
       <c r="J5">
         <f t="shared" si="4"/>
-        <v>-121567.34690600001</v>
+        <v>-999.18367320000004</v>
       </c>
       <c r="K5" s="5">
-        <v>-730</v>
+        <v>-6</v>
       </c>
       <c r="L5">
         <v>166.53061220000001</v>
@@ -621,14 +621,14 @@
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
-        <v>-2963.6556060668299</v>
+        <v>-1151.1122622233731</v>
       </c>
       <c r="B6">
         <v>3.75</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>4.0866693910800116</v>
+        <v>11.111111111111111</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="2"/>
@@ -644,34 +644,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H6" s="5">
-        <v>-700</v>
+        <v>-100</v>
       </c>
       <c r="I6" s="3">
         <f t="shared" si="3"/>
-        <v>171.28862969142858</v>
+        <v>9</v>
       </c>
       <c r="J6">
         <f t="shared" si="4"/>
-        <v>-119902.04078400001</v>
+        <v>-900</v>
       </c>
       <c r="K6" s="5">
-        <v>-720</v>
+        <v>-6</v>
       </c>
       <c r="L6">
-        <v>166.53061220000001</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
-        <v>-3152.8251115748935</v>
+        <v>-1103.0291935538985</v>
       </c>
       <c r="B7">
         <v>3.76</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>4.3591140154069423</v>
+        <v>10.675381262221084</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="2"/>
@@ -687,18 +687,18 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H7" s="5">
-        <v>-700</v>
+        <v>-100</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" si="3"/>
-        <v>160.5830904</v>
+        <v>9.3673469399999991</v>
       </c>
       <c r="J7">
         <f t="shared" si="4"/>
-        <v>-112408.16327999999</v>
+        <v>-936.73469399999999</v>
       </c>
       <c r="K7" s="5">
-        <v>-720</v>
+        <v>-6</v>
       </c>
       <c r="L7">
         <v>156.12244899999999</v>
@@ -707,14 +707,14 @@
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
-        <v>-3136.1434972279362</v>
+        <v>-1097.1930602546715</v>
       </c>
       <c r="B8">
         <v>3.78</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>4.3591140154069423</v>
+        <v>10.675381262221084</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="2"/>
@@ -730,18 +730,18 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H8" s="5">
-        <v>-700</v>
+        <v>-100</v>
       </c>
       <c r="I8" s="3">
         <f t="shared" si="3"/>
-        <v>160.5830904</v>
+        <v>9.3673469399999991</v>
       </c>
       <c r="J8">
         <f t="shared" si="4"/>
-        <v>-112408.16327999999</v>
+        <v>-936.73469399999999</v>
       </c>
       <c r="K8" s="5">
-        <v>-720</v>
+        <v>-6</v>
       </c>
       <c r="L8">
         <v>156.12244899999999</v>
@@ -750,14 +750,14 @@
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
-        <v>-3018.6836930346776</v>
+        <v>-1100.1033866744451</v>
       </c>
       <c r="B9">
         <v>3.77</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>4.1847494547906647</v>
+        <v>10.675381262221084</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="2"/>
@@ -773,18 +773,18 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H9" s="5">
-        <v>-700</v>
+        <v>-100</v>
       </c>
       <c r="I9" s="3">
         <f t="shared" si="3"/>
-        <v>167.27405249999998</v>
+        <v>9.3673469399999991</v>
       </c>
       <c r="J9">
         <f t="shared" si="4"/>
-        <v>-117091.83674999999</v>
+        <v>-936.73469399999999</v>
       </c>
       <c r="K9" s="5">
-        <v>-750</v>
+        <v>-6</v>
       </c>
       <c r="L9">
         <v>156.12244899999999</v>
@@ -793,14 +793,14 @@
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
-        <v>-1150.4724061793759</v>
+        <v>-1100.1033866744451</v>
       </c>
       <c r="B10">
         <v>3.77</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>2.0298474945666438</v>
+        <v>10.675381262221084</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="2"/>
@@ -816,34 +816,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H10" s="5">
-        <v>-550</v>
+        <v>-100</v>
       </c>
       <c r="I10" s="3">
         <f t="shared" si="3"/>
-        <v>270.9563164090909</v>
+        <v>9.3673469399999991</v>
       </c>
       <c r="J10">
         <f t="shared" si="4"/>
-        <v>-149025.974025</v>
+        <v>-936.73469399999999</v>
       </c>
       <c r="K10" s="5">
-        <v>-750</v>
+        <v>-6</v>
       </c>
       <c r="L10">
-        <v>198.7012987</v>
+        <v>156.12244899999999</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
-        <v>-3144.4621802444558</v>
+        <v>-1100.1033866744451</v>
       </c>
       <c r="B11">
         <v>3.77</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>4.3591140154069423</v>
+        <v>10.675381262221084</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="2"/>
@@ -859,18 +859,18 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H11" s="5">
-        <v>-700</v>
+        <v>-100</v>
       </c>
       <c r="I11" s="3">
         <f t="shared" si="3"/>
-        <v>160.5830904</v>
+        <v>9.3673469399999991</v>
       </c>
       <c r="J11">
         <f t="shared" si="4"/>
-        <v>-112408.16327999999</v>
+        <v>-936.73469399999999</v>
       </c>
       <c r="K11" s="5">
-        <v>-720</v>
+        <v>-6</v>
       </c>
       <c r="L11">
         <v>156.12244899999999</v>
@@ -879,14 +879,14 @@
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
-        <v>-2947.9332951593137</v>
+        <v>-1145.0055658720555</v>
       </c>
       <c r="B12">
         <v>3.77</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>4.0866693910800116</v>
+        <v>11.111111111111111</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="2"/>
@@ -902,34 +902,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H12" s="5">
-        <v>-700</v>
+        <v>-100</v>
       </c>
       <c r="I12" s="3">
         <f t="shared" si="3"/>
-        <v>171.28862969142858</v>
+        <v>9</v>
       </c>
       <c r="J12">
         <f t="shared" si="4"/>
-        <v>-119902.04078400001</v>
+        <v>-900</v>
       </c>
       <c r="K12" s="5">
-        <v>-720</v>
+        <v>-6</v>
       </c>
       <c r="L12">
-        <v>166.53061220000001</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
-        <v>-2955.7735432847376</v>
+        <v>-1148.0507934408643</v>
       </c>
       <c r="B13">
         <v>3.76</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>4.0866693910800116</v>
+        <v>11.111111111111111</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="2"/>
@@ -945,34 +945,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H13" s="5">
-        <v>-700</v>
+        <v>-100</v>
       </c>
       <c r="I13" s="3">
         <f t="shared" si="3"/>
-        <v>171.28862969142858</v>
+        <v>9</v>
       </c>
       <c r="J13">
         <f t="shared" si="4"/>
-        <v>-119902.04078400001</v>
+        <v>-900</v>
       </c>
       <c r="K13" s="5">
-        <v>-720</v>
+        <v>-6</v>
       </c>
       <c r="L13">
-        <v>166.53061220000001</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
-        <v>-3425.458106327244</v>
+        <v>-1215.0555965106353</v>
       </c>
       <c r="B14">
         <v>3.2</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
-        <v>4.0306876185994636</v>
+        <v>10.008169937338803</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="2"/>
@@ -988,18 +988,18 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H14" s="5">
-        <v>-700</v>
+        <v>-100</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="3"/>
-        <v>173.66763843714287</v>
+        <v>9.9918367320000012</v>
       </c>
       <c r="J14">
         <f t="shared" si="4"/>
-        <v>-121567.34690600001</v>
+        <v>-999.18367320000004</v>
       </c>
       <c r="K14" s="5">
-        <v>-730</v>
+        <v>-6</v>
       </c>
       <c r="L14">
         <v>166.53061220000001</v>
@@ -1008,14 +1008,14 @@
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
-        <v>-2906.8112962730456</v>
+        <v>-1045.2091152779658</v>
       </c>
       <c r="B15">
         <v>3.72</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
-        <v>3.976218866996768</v>
+        <v>10.008169937338803</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="2"/>
@@ -1031,18 +1031,18 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H15" s="5">
-        <v>-700</v>
+        <v>-100</v>
       </c>
       <c r="I15" s="3">
         <f t="shared" si="3"/>
-        <v>176.04664718285716</v>
+        <v>9.9918367320000012</v>
       </c>
       <c r="J15">
         <f t="shared" si="4"/>
-        <v>-123232.653028</v>
+        <v>-999.18367320000004</v>
       </c>
       <c r="K15" s="5">
-        <v>-740</v>
+        <v>-6</v>
       </c>
       <c r="L15">
         <v>166.53061220000001</v>
@@ -1051,14 +1051,14 @@
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
-        <v>-2540.2762337715681</v>
+        <v>-880.95326190564276</v>
       </c>
       <c r="B16">
         <v>4.2</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
-        <v>3.9232026154368107</v>
+        <v>9.5238095238095237</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="2"/>
@@ -1074,34 +1074,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H16" s="5">
-        <v>-700</v>
+        <v>-100</v>
       </c>
       <c r="I16" s="3">
         <f t="shared" si="3"/>
-        <v>178.42565592857144</v>
+        <v>10.5</v>
       </c>
       <c r="J16">
         <f t="shared" si="4"/>
-        <v>-124897.95915000001</v>
+        <v>-1050</v>
       </c>
       <c r="K16" s="5">
-        <v>-750</v>
+        <v>-6</v>
       </c>
       <c r="L16">
-        <v>166.53061220000001</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
-        <v>-2150.2275207616863</v>
+        <v>-711.03129358221861</v>
       </c>
       <c r="B17">
         <v>4.67</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
-        <v>3.6924259902167877</v>
+        <v>8.5470085470085468</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="2"/>
@@ -1117,34 +1117,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H17" s="5">
-        <v>-700</v>
+        <v>-100</v>
       </c>
       <c r="I17" s="3">
         <f t="shared" si="3"/>
-        <v>189.5772594642857</v>
+        <v>11.7</v>
       </c>
       <c r="J17">
         <f t="shared" si="4"/>
-        <v>-132704.08162499999</v>
+        <v>-1170</v>
       </c>
       <c r="K17" s="5">
-        <v>-750</v>
+        <v>-6</v>
       </c>
       <c r="L17">
-        <v>176.93877549999999</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
-        <v>-2117.737232469462</v>
+        <v>-706.87843613607799</v>
       </c>
       <c r="B18">
         <v>4.58</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
-        <v>3.5665478306576994</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="2"/>
@@ -1160,21 +1160,21 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H18" s="5">
-        <v>-700</v>
+        <v>-100</v>
       </c>
       <c r="I18" s="3">
         <f t="shared" si="3"/>
-        <v>196.26822160714286</v>
+        <v>12</v>
       </c>
       <c r="J18">
         <f t="shared" si="4"/>
-        <v>-137387.755125</v>
+        <v>-1200</v>
       </c>
       <c r="K18" s="5">
-        <v>-750</v>
+        <v>-6</v>
       </c>
       <c r="L18">
-        <v>183.1836735</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
